--- a/C++/2.Searching_Sorting/LC.xlsx
+++ b/C++/2.Searching_Sorting/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/2.Searching_Sorting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{330B851F-7CD8-45B3-BBF0-8B9111AA3F1E}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7C58476-1B83-4829-A244-C8FB832751D1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Topic Tags</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Binary Search</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-characters-by-frequency/</t>
+  </si>
+  <si>
+    <t>Sorting, Hash Table, String, Priority Queue</t>
   </si>
 </sst>
 </file>
@@ -90,7 +96,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +111,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,13 +135,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -412,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
     <col min="2" max="2" width="72.33203125" customWidth="1"/>
     <col min="3" max="3" width="42.21875" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
@@ -460,12 +473,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{F36C1F21-C6DF-47CA-B6C7-134BBB35AAFF}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{7F730EDA-B0CA-464D-BA9F-847881EDEBBD}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{69E9CE4E-356B-4F43-8AEE-2FC0CEC8B691}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>